--- a/repair_item2.xlsx
+++ b/repair_item2.xlsx
@@ -5,22 +5,35 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\Colab Notebooks\repair_app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SALES\work\git_space\repair_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364D479B-85AA-4797-8561-296E97C36BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4D9495-DCC7-4F42-B1DB-A5F6FBCEE5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="89">
   <si>
     <t>シリーズ</t>
   </si>
@@ -256,43 +269,39 @@
     <t>2</t>
   </si>
   <si>
+    <t>Sereno</t>
+  </si>
+  <si>
+    <t>MK266X</t>
+  </si>
+  <si>
+    <t>EIGER</t>
+  </si>
+  <si>
+    <t>EG253A</t>
+  </si>
+  <si>
+    <t>chouette</t>
+  </si>
+  <si>
+    <t>RF210</t>
+  </si>
+  <si>
+    <t>azami</t>
+  </si>
+  <si>
+    <t>AZ261A</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>767W用クッション</t>
-  </si>
-  <si>
-    <t>2*1.8</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>767SO用クッション</t>
-  </si>
-  <si>
-    <t>2*2.5</t>
-  </si>
-  <si>
-    <t>Sereno</t>
-  </si>
-  <si>
-    <t>MK266X</t>
-  </si>
-  <si>
-    <t>EIGER</t>
-  </si>
-  <si>
-    <t>EG253A</t>
-  </si>
-  <si>
-    <t>chouette</t>
-  </si>
-  <si>
-    <t>RF210</t>
-  </si>
-  <si>
-    <t>azami</t>
-  </si>
-  <si>
-    <t>AZ261A</t>
-  </si>
-  <si>
-    <t>1</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -357,11 +366,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -666,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1265,13 +1275,13 @@
         <v>74</v>
       </c>
       <c r="B43" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C43" t="s">
         <v>76</v>
       </c>
-      <c r="D43" t="s">
-        <v>79</v>
+      <c r="D43" s="2">
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -1279,21 +1289,21 @@
         <v>74</v>
       </c>
       <c r="B44" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C44" t="s">
         <v>76</v>
       </c>
-      <c r="D44" t="s">
-        <v>81</v>
+      <c r="D44" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B45" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C45" t="s">
         <v>6</v>
@@ -1304,10 +1314,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B46" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C46" t="s">
         <v>6</v>
@@ -1318,10 +1328,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B47" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C47" t="s">
         <v>6</v>
@@ -1332,16 +1342,16 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B48" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C48" t="s">
         <v>6</v>
       </c>
       <c r="D48" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
